--- a/natmiOut/OldD0/LR-pairs_lrc2p/Jag1-Notch3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Jag1-Notch3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.22776631639784</v>
+        <v>7.636417666666667</v>
       </c>
       <c r="H2">
-        <v>7.22776631639784</v>
+        <v>22.909253</v>
       </c>
       <c r="I2">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="J2">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N2">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O2">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P2">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q2">
-        <v>16.62259504477553</v>
+        <v>37.01752445727644</v>
       </c>
       <c r="R2">
-        <v>16.62259504477553</v>
+        <v>333.157720115488</v>
       </c>
       <c r="S2">
-        <v>0.001753801843011721</v>
+        <v>0.003690833370943947</v>
       </c>
       <c r="T2">
-        <v>0.001753801843011721</v>
+        <v>0.003690833370943947</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.22776631639784</v>
+        <v>7.636417666666667</v>
       </c>
       <c r="H3">
-        <v>7.22776631639784</v>
+        <v>22.909253</v>
       </c>
       <c r="I3">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="J3">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N3">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O3">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P3">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q3">
-        <v>11.5856331092474</v>
+        <v>12.42516427598222</v>
       </c>
       <c r="R3">
-        <v>11.5856331092474</v>
+        <v>111.82647848384</v>
       </c>
       <c r="S3">
-        <v>0.001222366582637886</v>
+        <v>0.001238851371657332</v>
       </c>
       <c r="T3">
-        <v>0.001222366582637886</v>
+        <v>0.001238851371657333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.22776631639784</v>
+        <v>7.636417666666667</v>
       </c>
       <c r="H4">
-        <v>7.22776631639784</v>
+        <v>22.909253</v>
       </c>
       <c r="I4">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="J4">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N4">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O4">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P4">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q4">
-        <v>966.2698416003489</v>
+        <v>1039.092982488626</v>
       </c>
       <c r="R4">
-        <v>966.2698416003489</v>
+        <v>9351.836842397637</v>
       </c>
       <c r="S4">
-        <v>0.1019483314416639</v>
+        <v>0.1036027965540747</v>
       </c>
       <c r="T4">
-        <v>0.1019483314416639</v>
+        <v>0.1036027965540747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.9670457765529</v>
+        <v>15.103385</v>
       </c>
       <c r="H5">
-        <v>14.9670457765529</v>
+        <v>45.31015499999999</v>
       </c>
       <c r="I5">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="J5">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N5">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O5">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P5">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q5">
-        <v>34.42158061970227</v>
+        <v>73.21363864965332</v>
       </c>
       <c r="R5">
-        <v>34.42158061970227</v>
+        <v>658.9227478468799</v>
       </c>
       <c r="S5">
-        <v>0.00363172124253753</v>
+        <v>0.007299768007129814</v>
       </c>
       <c r="T5">
-        <v>0.00363172124253753</v>
+        <v>0.007299768007129815</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.9670457765529</v>
+        <v>15.103385</v>
       </c>
       <c r="H6">
-        <v>14.9670457765529</v>
+        <v>45.31015499999999</v>
       </c>
       <c r="I6">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="J6">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N6">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O6">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P6">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q6">
-        <v>23.99118808020247</v>
+        <v>24.57461704426667</v>
       </c>
       <c r="R6">
-        <v>23.99118808020247</v>
+        <v>221.1715533984</v>
       </c>
       <c r="S6">
-        <v>0.002531240745368716</v>
+        <v>0.002450212919284463</v>
       </c>
       <c r="T6">
-        <v>0.002531240745368716</v>
+        <v>0.002450212919284463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.9670457765529</v>
+        <v>15.103385</v>
       </c>
       <c r="H7">
-        <v>14.9670457765529</v>
+        <v>45.31015499999999</v>
       </c>
       <c r="I7">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="J7">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N7">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O7">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P7">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q7">
-        <v>2000.923150894367</v>
+        <v>2055.128733179206</v>
       </c>
       <c r="R7">
-        <v>2000.923150894367</v>
+        <v>18496.15859861286</v>
       </c>
       <c r="S7">
-        <v>0.2111116044342491</v>
+        <v>0.2049066711297217</v>
       </c>
       <c r="T7">
-        <v>0.2111116044342491</v>
+        <v>0.2049066711297217</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.6905895581222</v>
+        <v>47.62086333333334</v>
       </c>
       <c r="H8">
-        <v>46.6905895581222</v>
+        <v>142.86259</v>
       </c>
       <c r="I8">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="J8">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N8">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O8">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P8">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q8">
-        <v>107.3801681808233</v>
+        <v>230.8420715138489</v>
       </c>
       <c r="R8">
-        <v>107.3801681808233</v>
+        <v>2077.57864362464</v>
       </c>
       <c r="S8">
-        <v>0.01132937043531157</v>
+        <v>0.0230161155683026</v>
       </c>
       <c r="T8">
-        <v>0.01132937043531157</v>
+        <v>0.0230161155683026</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.6905895581222</v>
+        <v>47.62086333333334</v>
       </c>
       <c r="H9">
-        <v>46.6905895581222</v>
+        <v>142.86259</v>
       </c>
       <c r="I9">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="J9">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N9">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O9">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P9">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q9">
-        <v>74.84193824136449</v>
+        <v>77.48358925724446</v>
       </c>
       <c r="R9">
-        <v>74.84193824136449</v>
+        <v>697.3523033152001</v>
       </c>
       <c r="S9">
-        <v>0.007896356066469219</v>
+        <v>0.007725503558759386</v>
       </c>
       <c r="T9">
-        <v>0.007896356066469219</v>
+        <v>0.007725503558759386</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.6905895581222</v>
+        <v>47.62086333333334</v>
       </c>
       <c r="H10">
-        <v>46.6905895581222</v>
+        <v>142.86259</v>
       </c>
       <c r="I10">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="J10">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N10">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O10">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P10">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q10">
-        <v>6241.998786568174</v>
+        <v>6479.805986216566</v>
       </c>
       <c r="R10">
-        <v>6241.998786568174</v>
+        <v>58318.25387594909</v>
       </c>
       <c r="S10">
-        <v>0.6585752072087502</v>
+        <v>0.6460692475201261</v>
       </c>
       <c r="T10">
-        <v>0.6585752072087502</v>
+        <v>0.6460692475201261</v>
       </c>
     </row>
   </sheetData>
